--- a/generate_cards/Version_2.0/papers_v2.0.xlsx
+++ b/generate_cards/Version_2.0/papers_v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\RoboTwin 2.0 Citation Overview\generate_cards\Version_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC287C-E5ED-404B-B103-6BCBF456853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E582DA-FDEE-4E60-96B2-881027E19559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,6 @@
     <t>ManiFlow; Imitation Learning; Visuomotor Policy</t>
   </si>
   <si>
-    <t>..\img\tab_v2.0_img\Benchmarking Generalizable Bimanual Manipulation_img.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>..\img\tab_v2.0_img\H-RDT_img.png</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -147,20 +143,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>..\img\tab_v2.0_img\Vision-Language-Action Models for Robotics_img.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>..\img\tab_v2.0_img\Survey of Vision-Language-Action Models_img.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>..\img\tab_v2.0_img\Agentic AI_img.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>..\img\tab_v2.0_img\ManiFlow_img.png</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>..\img\tab_v2.0_img\Benchmarking-Generalizable-Bimanual-Manipulation_img.png</t>
+  </si>
+  <si>
+    <t>..\img\tab_v2.0_img\Vision-Language-Action-Models-for-Robotics_img.png</t>
+  </si>
+  <si>
+    <t>..\img\tab_v2.0_img\Survey-of-Vision-Language-Action-Models_img.png</t>
+  </si>
+  <si>
+    <t>..\img\tab_v2.0_img\Agentic-AI_img.jpg</t>
   </si>
 </sst>
 </file>
@@ -533,7 +529,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -564,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -581,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -598,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -615,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -632,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -649,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -666,7 +662,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
